--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf18-Fgfr1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H2">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I2">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J2">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>5.638649511474223</v>
+        <v>2.893747986230667</v>
       </c>
       <c r="R2">
-        <v>50.747845603268</v>
+        <v>26.04373187607601</v>
       </c>
       <c r="S2">
-        <v>0.005692757607992654</v>
+        <v>0.002426711233203674</v>
       </c>
       <c r="T2">
-        <v>0.005692757607992652</v>
+        <v>0.002426711233203674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H3">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I3">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J3">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>64.40079607702157</v>
+        <v>30.50218366612767</v>
       </c>
       <c r="R3">
-        <v>579.607164693194</v>
+        <v>274.519652995149</v>
       </c>
       <c r="S3">
-        <v>0.0650187817281794</v>
+        <v>0.0255792806049605</v>
       </c>
       <c r="T3">
-        <v>0.06501878172817939</v>
+        <v>0.02557928060496051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H4">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I4">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J4">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>19.24209565297311</v>
+        <v>20.27268211373634</v>
       </c>
       <c r="R4">
-        <v>173.178860876758</v>
+        <v>182.454139023627</v>
       </c>
       <c r="S4">
-        <v>0.01942674149178421</v>
+        <v>0.01700077050477803</v>
       </c>
       <c r="T4">
-        <v>0.0194267414917842</v>
+        <v>0.01700077050477804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7403513333333334</v>
+        <v>0.350653</v>
       </c>
       <c r="H5">
-        <v>2.221054</v>
+        <v>1.051959</v>
       </c>
       <c r="I5">
-        <v>0.09083790882557785</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="J5">
-        <v>0.09083790882557784</v>
+        <v>0.04536179359243143</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.6929782257835555</v>
+        <v>0.4233593800536667</v>
       </c>
       <c r="R5">
-        <v>6.236804032052</v>
+        <v>3.810234420483</v>
       </c>
       <c r="S5">
-        <v>0.0006996279976215757</v>
+        <v>0.000355031249489216</v>
       </c>
       <c r="T5">
-        <v>0.0006996279976215756</v>
+        <v>0.0003550312494892161</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>19.672098</v>
       </c>
       <c r="I6">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J6">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>49.94208415345733</v>
+        <v>54.11436564774133</v>
       </c>
       <c r="R6">
-        <v>449.478757381116</v>
+        <v>487.029290829672</v>
       </c>
       <c r="S6">
-        <v>0.050421324990152</v>
+        <v>0.04538057205393319</v>
       </c>
       <c r="T6">
-        <v>0.05042132499015198</v>
+        <v>0.0453805720539332</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>19.672098</v>
       </c>
       <c r="I7">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J7">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
         <v>570.4043088124753</v>
@@ -883,10 +883,10 @@
         <v>5133.638779312278</v>
       </c>
       <c r="S7">
-        <v>0.5758778696949081</v>
+        <v>0.4783438468897383</v>
       </c>
       <c r="T7">
-        <v>0.5758778696949081</v>
+        <v>0.4783438468897384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>19.672098</v>
       </c>
       <c r="I8">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J8">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>170.4291707498606</v>
+        <v>379.1081109285326</v>
       </c>
       <c r="R8">
-        <v>1533.862536748746</v>
+        <v>3411.972998356794</v>
       </c>
       <c r="S8">
-        <v>0.172064597460055</v>
+        <v>0.3179219184830425</v>
       </c>
       <c r="T8">
-        <v>0.172064597460055</v>
+        <v>0.3179219184830425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>19.672098</v>
       </c>
       <c r="I9">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="J9">
-        <v>0.8045604674770771</v>
+        <v>0.8482855786262421</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>6.137777635969332</v>
+        <v>7.917007424847332</v>
       </c>
       <c r="R9">
-        <v>55.23999872372399</v>
+        <v>71.253066823626</v>
       </c>
       <c r="S9">
-        <v>0.006196675331961943</v>
+        <v>0.006639241199528028</v>
       </c>
       <c r="T9">
-        <v>0.006196675331961943</v>
+        <v>0.006639241199528029</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H10">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I10">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J10">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N10">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O10">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P10">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q10">
-        <v>5.368358875794889</v>
+        <v>6.154356093849778</v>
       </c>
       <c r="R10">
-        <v>48.315229882154</v>
+        <v>55.38920484464801</v>
       </c>
       <c r="S10">
-        <v>0.005419873281789799</v>
+        <v>0.005161073160878305</v>
       </c>
       <c r="T10">
-        <v>0.005419873281789798</v>
+        <v>0.005161073160878306</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H11">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I11">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J11">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q11">
-        <v>61.31372140169522</v>
+        <v>64.87133669365578</v>
       </c>
       <c r="R11">
-        <v>551.823492615257</v>
+        <v>583.8420302429021</v>
       </c>
       <c r="S11">
-        <v>0.06190208369460882</v>
+        <v>0.05440142065463316</v>
       </c>
       <c r="T11">
-        <v>0.0619020836946088</v>
+        <v>0.05440142065463317</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H12">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I12">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J12">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N12">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q12">
-        <v>18.31971907055544</v>
+        <v>43.11547007514955</v>
       </c>
       <c r="R12">
-        <v>164.877471634999</v>
+        <v>388.039230676346</v>
       </c>
       <c r="S12">
-        <v>0.01849551384652849</v>
+        <v>0.03615684436035131</v>
       </c>
       <c r="T12">
-        <v>0.01849551384652849</v>
+        <v>0.03615684436035132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7048623333333333</v>
+        <v>0.7457606666666666</v>
       </c>
       <c r="H13">
-        <v>2.114587</v>
+        <v>2.237282</v>
       </c>
       <c r="I13">
-        <v>0.08648356190788345</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="J13">
-        <v>0.08648356190788344</v>
+        <v>0.09647441040198541</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N13">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q13">
-        <v>0.6597600722562221</v>
+        <v>0.9003909092704444</v>
       </c>
       <c r="R13">
-        <v>5.937840650305999</v>
+        <v>8.103518183434</v>
       </c>
       <c r="S13">
-        <v>0.0006660910849563381</v>
+        <v>0.0007550722261226265</v>
       </c>
       <c r="T13">
-        <v>0.000666091084956338</v>
+        <v>0.0007550722261226267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H14">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I14">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J14">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N14">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O14">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P14">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q14">
-        <v>1.124656011777778</v>
+        <v>0.6301574383466667</v>
       </c>
       <c r="R14">
-        <v>10.121904106</v>
+        <v>5.671416945120001</v>
       </c>
       <c r="S14">
-        <v>0.001135448134237504</v>
+        <v>0.0005284531139543437</v>
       </c>
       <c r="T14">
-        <v>0.001135448134237504</v>
+        <v>0.0005284531139543438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H15">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I15">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J15">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>260.960411</v>
       </c>
       <c r="O15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P15">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q15">
-        <v>12.84505134144444</v>
+        <v>6.642312327986667</v>
       </c>
       <c r="R15">
-        <v>115.605462073</v>
+        <v>59.78081095188001</v>
       </c>
       <c r="S15">
-        <v>0.01296831157890959</v>
+        <v>0.005570275648560782</v>
       </c>
       <c r="T15">
-        <v>0.01296831157890959</v>
+        <v>0.005570275648560784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H16">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I16">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J16">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N16">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P16">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q16">
-        <v>3.837929367888888</v>
+        <v>4.414683479693333</v>
       </c>
       <c r="R16">
-        <v>34.541364311</v>
+        <v>39.73215131724</v>
       </c>
       <c r="S16">
-        <v>0.003874757876602912</v>
+        <v>0.003702175186708371</v>
       </c>
       <c r="T16">
-        <v>0.003874757876602911</v>
+        <v>0.003702175186708372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1476666666666666</v>
+        <v>0.07636</v>
       </c>
       <c r="H17">
-        <v>0.4429999999999999</v>
+        <v>0.22908</v>
       </c>
       <c r="I17">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="J17">
-        <v>0.01811806178946166</v>
+        <v>0.009878217379341012</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N17">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P17">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q17">
-        <v>0.1382178704444444</v>
+        <v>0.09219291510666666</v>
       </c>
       <c r="R17">
-        <v>1.243960834</v>
+        <v>0.82973623596</v>
       </c>
       <c r="S17">
-        <v>0.0001395441997116495</v>
+        <v>7.731343011751369E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001395441997116495</v>
+        <v>7.73134301175137E-05</v>
       </c>
     </row>
   </sheetData>
